--- a/Input/chinese.xlsx
+++ b/Input/chinese.xlsx
@@ -267,9 +267,6 @@
     <t>女性</t>
   </si>
   <si>
-    <t>拉迪</t>
-  </si>
-  <si>
     <t>胡</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>早晨</t>
+  </si>
+  <si>
+    <t>拉迪卡瓦</t>
   </si>
 </sst>
 </file>
@@ -885,9 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -992,28 +990,28 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>13013766615</v>
@@ -1025,34 +1023,34 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18.75">
@@ -1060,28 +1058,28 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>13092650096</v>
@@ -1093,34 +1091,34 @@
         <v>24</v>
       </c>
       <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>64</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="18">
@@ -1128,28 +1126,28 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>13013866909</v>
@@ -1158,37 +1156,37 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="18.75">
@@ -1196,28 +1194,28 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>13073383088</v>
@@ -1229,34 +1227,34 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="S5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="18.75">
@@ -1264,28 +1262,28 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>13151467186</v>
@@ -1297,34 +1295,34 @@
         <v>24</v>
       </c>
       <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" t="s">
         <v>63</v>
       </c>
-      <c r="O6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>64</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="18.75">
@@ -1332,28 +1330,28 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7">
         <v>13052847367</v>
@@ -1362,37 +1360,37 @@
         <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="18.75">
@@ -1400,28 +1398,28 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8">
         <v>13063828809</v>
@@ -1433,34 +1431,34 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18.75">
@@ -1468,28 +1466,28 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9">
         <v>13013788938</v>
@@ -1501,34 +1499,34 @@
         <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="W9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="18.75">
@@ -1536,28 +1534,28 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10">
         <v>13063783392</v>
@@ -1566,37 +1564,37 @@
         <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" t="s">
         <v>63</v>
       </c>
-      <c r="O10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>64</v>
-      </c>
       <c r="R10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="18.75">
@@ -1604,28 +1602,28 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11">
         <v>13092668539</v>
@@ -1637,34 +1635,34 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="18.75">
@@ -1672,28 +1670,28 @@
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>13073368951</v>
@@ -1705,34 +1703,34 @@
         <v>24</v>
       </c>
       <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" t="s">
         <v>63</v>
       </c>
-      <c r="O12" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="18.75">
@@ -1740,28 +1738,28 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13">
         <v>13063763578</v>
@@ -1770,37 +1768,37 @@
         <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="18">
@@ -1808,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14">
         <v>13052822771</v>
@@ -1838,37 +1836,37 @@
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="W14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="18.75">
@@ -1876,28 +1874,28 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
         <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15">
         <v>13052862033</v>
@@ -1909,34 +1907,34 @@
         <v>23</v>
       </c>
       <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" t="s">
         <v>63</v>
       </c>
-      <c r="O15" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>64</v>
-      </c>
       <c r="R15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="18.75">
@@ -1944,28 +1942,28 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
         <v>13013791999</v>
@@ -1977,34 +1975,34 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="S16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="18.75">
@@ -2012,28 +2010,28 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>13092623984</v>
@@ -2042,37 +2040,37 @@
         <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="W17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="18.75">
@@ -2080,28 +2078,28 @@
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18">
         <v>13063806958</v>
@@ -2113,34 +2111,34 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="18.75">
@@ -2148,28 +2146,28 @@
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>13004576141</v>
@@ -2181,34 +2179,34 @@
         <v>24</v>
       </c>
       <c r="N19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" t="s">
         <v>63</v>
       </c>
-      <c r="O19" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>64</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="18.75">
@@ -2216,28 +2214,28 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20">
         <v>13013811599</v>
@@ -2246,66 +2244,66 @@
         <v>45</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18.75">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21">
         <v>13013863521</v>
@@ -2317,34 +2315,34 @@
         <v>23</v>
       </c>
       <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" t="s">
         <v>63</v>
       </c>
-      <c r="O21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q21" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="S21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18">

--- a/Input/chinese.xlsx
+++ b/Input/chinese.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="129">
   <si>
     <t>Patient Id</t>
   </si>
@@ -505,12 +505,6 @@
   </si>
   <si>
     <t xml:space="preserve">胡文彦 </t>
-  </si>
-  <si>
-    <t>十六万六千八百〇三</t>
-  </si>
-  <si>
-    <t>十四万九千三百七十七</t>
   </si>
   <si>
     <t>早晨</t>
@@ -581,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -589,6 +583,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,7 +882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -990,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -1032,13 +1031,13 @@
         <v>108</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>127</v>
+      <c r="S2" s="5">
+        <v>166803</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>119</v>
@@ -1058,7 +1057,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -1105,8 +1104,8 @@
       <c r="R3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>128</v>
+      <c r="S3" s="5">
+        <v>166803</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>120</v>
@@ -1126,7 +1125,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>52</v>
@@ -1168,13 +1167,13 @@
         <v>108</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>128</v>
+      <c r="S4" s="5">
+        <v>166803</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>121</v>
@@ -1194,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>54</v>
@@ -1236,13 +1235,13 @@
         <v>109</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>127</v>
+      <c r="S5" s="5">
+        <v>166803</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>122</v>
@@ -1262,7 +1261,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>56</v>
@@ -1309,8 +1308,8 @@
       <c r="R6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>128</v>
+      <c r="S6" s="5">
+        <v>166803</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>123</v>
@@ -1330,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>52</v>
@@ -1372,13 +1371,13 @@
         <v>108</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>128</v>
+      <c r="S7" s="5">
+        <v>166803</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>124</v>
@@ -1398,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>52</v>
@@ -1440,13 +1439,13 @@
         <v>108</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>127</v>
+      <c r="S8" s="5">
+        <v>166803</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>125</v>
@@ -1466,7 +1465,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>52</v>
@@ -1508,13 +1507,13 @@
         <v>109</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>128</v>
+      <c r="S9" s="5">
+        <v>166803</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>126</v>
@@ -1534,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -1581,8 +1580,8 @@
       <c r="R10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>128</v>
+      <c r="S10" s="5">
+        <v>166803</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>119</v>
@@ -1602,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>50</v>
@@ -1644,13 +1643,13 @@
         <v>109</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>127</v>
+      <c r="S11" s="5">
+        <v>166803</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>120</v>
@@ -1670,7 +1669,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>52</v>
@@ -1717,8 +1716,8 @@
       <c r="R12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>128</v>
+      <c r="S12" s="5">
+        <v>166803</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>121</v>
@@ -1738,7 +1737,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>54</v>
@@ -1780,13 +1779,13 @@
         <v>109</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>128</v>
+      <c r="S13" s="5">
+        <v>166803</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>122</v>
@@ -1806,7 +1805,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>56</v>
@@ -1848,13 +1847,13 @@
         <v>109</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>127</v>
+      <c r="S14" s="5">
+        <v>166803</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>123</v>
@@ -1874,7 +1873,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>52</v>
@@ -1921,8 +1920,8 @@
       <c r="R15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>128</v>
+      <c r="S15" s="5">
+        <v>166803</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>124</v>
@@ -1942,7 +1941,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>52</v>
@@ -1984,13 +1983,13 @@
         <v>109</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>128</v>
+      <c r="S16" s="5">
+        <v>166803</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>125</v>
@@ -2010,7 +2009,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>52</v>
@@ -2052,13 +2051,13 @@
         <v>108</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>127</v>
+      <c r="S17" s="5">
+        <v>166803</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>126</v>
@@ -2078,7 +2077,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
@@ -2120,13 +2119,13 @@
         <v>109</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>128</v>
+      <c r="S18" s="5">
+        <v>166803</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>119</v>
@@ -2146,7 +2145,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>56</v>
@@ -2193,8 +2192,8 @@
       <c r="R19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>128</v>
+      <c r="S19" s="5">
+        <v>166803</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>120</v>
@@ -2214,7 +2213,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
@@ -2256,13 +2255,13 @@
         <v>108</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>127</v>
+      <c r="S20" s="5">
+        <v>166803</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>121</v>
@@ -2282,7 +2281,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>52</v>
@@ -2329,8 +2328,8 @@
       <c r="R21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>127</v>
+      <c r="S21" s="5">
+        <v>166803</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>122</v>
